--- a/CashFlow/ENPH_cashflow.xlsx
+++ b/CashFlow/ENPH_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>146000000.0</v>
+        <v>-260000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>146000000.0</v>
+        <v>-9708000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>102175000.0</v>
+        <v>-7304000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>54038000.0</v>
+        <v>-11092000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>15915000.0</v>
+        <v>-21645000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-15789000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>227000000.0</v>
+        <v>94137000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>180000000.0</v>
+        <v>35695000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>110544000.0</v>
+        <v>-5656000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>64395000.0</v>
+        <v>-29994000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>52349000.0</v>
+        <v>-4717000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>22200000.0</v>
